--- a/Projectplan.xlsx
+++ b/Projectplan.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas.hanning/Projects/Udacity/Building-CICD-Pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3B9E6C-4C6F-2D4F-AAF8-4533521E3C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A43209-8FDF-D343-AA8A-B627842C6CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="7580" windowWidth="26040" windowHeight="14940" xr2:uid="{8DBB7D2C-BB51-3E49-9562-CA7CC0C3E03E}"/>
+    <workbookView xWindow="6880" yWindow="3080" windowWidth="26040" windowHeight="14940" activeTab="2" xr2:uid="{8DBB7D2C-BB51-3E49-9562-CA7CC0C3E03E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Yearly" sheetId="1" r:id="rId1"/>
+    <sheet name="Quaterly" sheetId="2" r:id="rId2"/>
+    <sheet name="Weekly" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>Project Plan</t>
   </si>
@@ -105,6 +107,63 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>Q2 2023</t>
+  </si>
+  <si>
+    <t>KW 17</t>
+  </si>
+  <si>
+    <t>KW 18</t>
+  </si>
+  <si>
+    <t>KW 19</t>
+  </si>
+  <si>
+    <t>KW 20</t>
+  </si>
+  <si>
+    <t>KW 21</t>
+  </si>
+  <si>
+    <t>Create Azure Infrastructure</t>
+  </si>
+  <si>
+    <t>Create GitHub Infrastructure</t>
+  </si>
+  <si>
+    <t>KW 22</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>KW 23</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>KW 24</t>
+  </si>
+  <si>
+    <t>KW 25</t>
+  </si>
+  <si>
+    <t>KW 26</t>
+  </si>
+  <si>
+    <t>KW 27</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Weekt</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -172,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -182,6 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63947097-D094-C244-84FF-2167AACB0941}">
   <dimension ref="A2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,5 +673,319 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811ED422-BE8C-C145-9AFB-1CFA3BAE3FC2}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC191C-6B39-F24A-A457-8440D536340A}">
+  <dimension ref="A2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>